--- a/posesiones/1381294.xlsx
+++ b/posesiones/1381294.xlsx
@@ -1772,10 +1772,10 @@
         <v>1</v>
       </c>
       <c r="P3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:18">
@@ -1816,7 +1816,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:18">
@@ -1866,7 +1866,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:18">
@@ -1916,7 +1916,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:18">
@@ -1966,7 +1966,7 @@
         <v>1</v>
       </c>
       <c r="Q7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R7">
         <v>14</v>
@@ -2019,7 +2019,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:18">
@@ -2066,7 +2066,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:18">
@@ -2116,7 +2116,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:18">
@@ -2166,7 +2166,7 @@
         <v>1</v>
       </c>
       <c r="Q11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R11">
         <v>29</v>
@@ -2219,7 +2219,7 @@
         <v>1</v>
       </c>
       <c r="Q12">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R12">
         <v>25</v>
@@ -2272,7 +2272,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:18">
@@ -2322,7 +2322,7 @@
         <v>1</v>
       </c>
       <c r="Q14">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R14">
         <v>8</v>
@@ -2375,7 +2375,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:18">
@@ -2425,7 +2425,7 @@
         <v>1</v>
       </c>
       <c r="Q16">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="R16">
         <v>13</v>
@@ -2475,7 +2475,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:18">
@@ -2525,7 +2525,7 @@
         <v>1</v>
       </c>
       <c r="Q18">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="R18">
         <v>17</v>
@@ -2575,7 +2575,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20" spans="1:18">
@@ -2625,7 +2625,7 @@
         <v>1</v>
       </c>
       <c r="Q20">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="R20">
         <v>14</v>
@@ -2678,7 +2678,7 @@
         <v>1</v>
       </c>
       <c r="Q21">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="R21">
         <v>23</v>
@@ -2731,7 +2731,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="23" spans="1:18">
@@ -2781,7 +2781,7 @@
         <v>1</v>
       </c>
       <c r="Q23">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="R23">
         <v>12</v>
@@ -2831,7 +2831,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="25" spans="1:18">
@@ -2881,7 +2881,7 @@
         <v>1</v>
       </c>
       <c r="Q25">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="R25">
         <v>16</v>
@@ -2934,7 +2934,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="27" spans="1:18">
@@ -2984,7 +2984,7 @@
         <v>1</v>
       </c>
       <c r="Q27">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="R27">
         <v>9</v>
@@ -3037,7 +3037,7 @@
         <v>1</v>
       </c>
       <c r="Q28">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="R28">
         <v>20</v>
@@ -3090,7 +3090,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="30" spans="1:18">
@@ -3137,7 +3137,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31" spans="1:18">
@@ -3184,7 +3184,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="32" spans="1:18">
@@ -3231,7 +3231,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="33" spans="1:18">
@@ -3278,7 +3278,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="34" spans="1:18">
@@ -3328,7 +3328,7 @@
         <v>1</v>
       </c>
       <c r="Q34">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="R34">
         <v>7</v>
@@ -3378,7 +3378,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="36" spans="1:18">
@@ -3428,7 +3428,7 @@
         <v>1</v>
       </c>
       <c r="Q36">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="R36">
         <v>3</v>
@@ -3481,7 +3481,7 @@
         <v>1</v>
       </c>
       <c r="Q37">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="R37">
         <v>18</v>
@@ -3531,7 +3531,7 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="39" spans="1:18">
@@ -3581,7 +3581,7 @@
         <v>1</v>
       </c>
       <c r="Q39">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="R39">
         <v>27</v>
@@ -3634,7 +3634,7 @@
         <v>1</v>
       </c>
       <c r="Q40">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="R40">
         <v>19</v>
@@ -3684,7 +3684,7 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="42" spans="1:18">
@@ -3734,7 +3734,7 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="43" spans="1:18">
@@ -3784,7 +3784,7 @@
         <v>1</v>
       </c>
       <c r="Q43">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="R43">
         <v>28</v>
@@ -3837,7 +3837,7 @@
         <v>1</v>
       </c>
       <c r="Q44">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="R44">
         <v>12</v>
@@ -3890,7 +3890,7 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="46" spans="1:18">
@@ -3937,7 +3937,7 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="47" spans="1:18">
@@ -3984,7 +3984,7 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="48" spans="1:18">
@@ -4031,7 +4031,7 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="49" spans="1:18">
@@ -4081,7 +4081,7 @@
         <v>1</v>
       </c>
       <c r="Q49">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="R49">
         <v>4</v>
@@ -4131,7 +4131,7 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="51" spans="1:18">
@@ -4178,7 +4178,7 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="52" spans="1:18">
@@ -4225,7 +4225,7 @@
         <v>0</v>
       </c>
       <c r="Q52">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="53" spans="1:18">
@@ -4272,7 +4272,7 @@
         <v>0</v>
       </c>
       <c r="Q53">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="54" spans="1:18">
@@ -4322,7 +4322,7 @@
         <v>1</v>
       </c>
       <c r="Q54">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="R54">
         <v>15</v>
@@ -4375,7 +4375,7 @@
         <v>0</v>
       </c>
       <c r="Q55">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="56" spans="1:18">
@@ -4425,7 +4425,7 @@
         <v>1</v>
       </c>
       <c r="Q56">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="R56">
         <v>14</v>
@@ -4475,7 +4475,7 @@
         <v>0</v>
       </c>
       <c r="Q57">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="58" spans="1:18">
@@ -4522,7 +4522,7 @@
         <v>0</v>
       </c>
       <c r="Q58">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="59" spans="1:18">
@@ -4569,7 +4569,7 @@
         <v>0</v>
       </c>
       <c r="Q59">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="60" spans="1:18">
@@ -4616,7 +4616,7 @@
         <v>0</v>
       </c>
       <c r="Q60">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="61" spans="1:18">
@@ -4663,7 +4663,7 @@
         <v>0</v>
       </c>
       <c r="Q61">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="62" spans="1:18">
@@ -4710,7 +4710,7 @@
         <v>0</v>
       </c>
       <c r="Q62">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="63" spans="1:18">
@@ -4760,7 +4760,7 @@
         <v>0</v>
       </c>
       <c r="Q63">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="64" spans="1:18">
@@ -4810,7 +4810,7 @@
         <v>1</v>
       </c>
       <c r="Q64">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="R64">
         <v>25</v>
@@ -4863,7 +4863,7 @@
         <v>0</v>
       </c>
       <c r="Q65">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="66" spans="1:18">
@@ -4913,7 +4913,7 @@
         <v>1</v>
       </c>
       <c r="Q66">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="R66">
         <v>9</v>
@@ -4966,7 +4966,7 @@
         <v>0</v>
       </c>
       <c r="Q67">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="68" spans="1:18">
@@ -5016,7 +5016,7 @@
         <v>1</v>
       </c>
       <c r="Q68">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="R68">
         <v>6</v>
@@ -5069,7 +5069,7 @@
         <v>1</v>
       </c>
       <c r="Q69">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="R69">
         <v>24</v>
@@ -5122,7 +5122,7 @@
         <v>1</v>
       </c>
       <c r="Q70">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="R70">
         <v>16</v>
@@ -5175,7 +5175,7 @@
         <v>1</v>
       </c>
       <c r="Q71">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="R71">
         <v>20</v>
@@ -5225,7 +5225,7 @@
         <v>0</v>
       </c>
       <c r="Q72">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="73" spans="1:18">
@@ -5275,7 +5275,7 @@
         <v>1</v>
       </c>
       <c r="Q73">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="R73">
         <v>9</v>
@@ -5322,7 +5322,7 @@
         <v>0</v>
       </c>
       <c r="Q74">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="75" spans="1:18">
@@ -5369,7 +5369,7 @@
         <v>0</v>
       </c>
       <c r="Q75">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="76" spans="1:18">
@@ -5416,7 +5416,7 @@
         <v>0</v>
       </c>
       <c r="Q76">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="77" spans="1:18">
@@ -5463,7 +5463,7 @@
         <v>0</v>
       </c>
       <c r="Q77">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="78" spans="1:18">
@@ -5510,7 +5510,7 @@
         <v>0</v>
       </c>
       <c r="Q78">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="79" spans="1:18">
@@ -5560,7 +5560,7 @@
         <v>1</v>
       </c>
       <c r="Q79">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R79">
         <v>15</v>
@@ -5613,7 +5613,7 @@
         <v>0</v>
       </c>
       <c r="Q80">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="81" spans="1:18">
@@ -5663,7 +5663,7 @@
         <v>1</v>
       </c>
       <c r="Q81">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="R81">
         <v>16</v>
@@ -5716,7 +5716,7 @@
         <v>0</v>
       </c>
       <c r="Q82">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="83" spans="1:18">
@@ -5766,7 +5766,7 @@
         <v>1</v>
       </c>
       <c r="Q83">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R83">
         <v>15</v>
@@ -5819,7 +5819,7 @@
         <v>0</v>
       </c>
       <c r="Q84">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="85" spans="1:18">
@@ -5866,7 +5866,7 @@
         <v>0</v>
       </c>
       <c r="Q85">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="86" spans="1:18">
@@ -5916,7 +5916,7 @@
         <v>0</v>
       </c>
       <c r="Q86">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="87" spans="1:18">
@@ -5963,7 +5963,7 @@
         <v>1</v>
       </c>
       <c r="Q87">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="R87">
         <v>30</v>
@@ -6013,7 +6013,7 @@
         <v>0</v>
       </c>
       <c r="Q88">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="89" spans="1:18">
@@ -6060,7 +6060,7 @@
         <v>0</v>
       </c>
       <c r="Q89">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="90" spans="1:18">
@@ -6110,7 +6110,7 @@
         <v>0</v>
       </c>
       <c r="Q90">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="91" spans="1:18">
@@ -6157,7 +6157,7 @@
         <v>1</v>
       </c>
       <c r="Q91">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="R91">
         <v>26</v>
@@ -6210,7 +6210,7 @@
         <v>1</v>
       </c>
       <c r="Q92">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="R92">
         <v>21</v>
@@ -6263,7 +6263,7 @@
         <v>0</v>
       </c>
       <c r="Q93">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="94" spans="1:18">
@@ -6310,7 +6310,7 @@
         <v>0</v>
       </c>
       <c r="Q94">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="95" spans="1:18">
@@ -6357,7 +6357,7 @@
         <v>0</v>
       </c>
       <c r="Q95">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="96" spans="1:18">
@@ -6404,7 +6404,7 @@
         <v>0</v>
       </c>
       <c r="Q96">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="97" spans="1:18">
@@ -6451,7 +6451,7 @@
         <v>0</v>
       </c>
       <c r="Q97">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="98" spans="1:18">
@@ -6498,7 +6498,7 @@
         <v>0</v>
       </c>
       <c r="Q98">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="99" spans="1:18">
@@ -6545,7 +6545,7 @@
         <v>0</v>
       </c>
       <c r="Q99">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="100" spans="1:18">
@@ -6595,7 +6595,7 @@
         <v>1</v>
       </c>
       <c r="Q100">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="R100">
         <v>20</v>
@@ -6645,7 +6645,7 @@
         <v>0</v>
       </c>
       <c r="Q101">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="102" spans="1:18">
@@ -6686,10 +6686,10 @@
         <v>1</v>
       </c>
       <c r="P102" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q102">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="103" spans="1:18">
@@ -6730,10 +6730,10 @@
         <v>1</v>
       </c>
       <c r="P103" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q103">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="104" spans="1:18">
@@ -6780,7 +6780,7 @@
         <v>0</v>
       </c>
       <c r="Q104">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="105" spans="1:18">
@@ -6830,7 +6830,7 @@
         <v>0</v>
       </c>
       <c r="Q105">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="106" spans="1:18">
@@ -6880,7 +6880,7 @@
         <v>1</v>
       </c>
       <c r="Q106">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="R106">
         <v>21</v>
@@ -6930,7 +6930,7 @@
         <v>0</v>
       </c>
       <c r="Q107">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="108" spans="1:18">
@@ -6980,7 +6980,7 @@
         <v>1</v>
       </c>
       <c r="Q108">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="R108">
         <v>15</v>
@@ -7030,7 +7030,7 @@
         <v>0</v>
       </c>
       <c r="Q109">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="110" spans="1:18">
@@ -7077,7 +7077,7 @@
         <v>0</v>
       </c>
       <c r="Q110">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="111" spans="1:18">
@@ -7124,7 +7124,7 @@
         <v>0</v>
       </c>
       <c r="Q111">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="112" spans="1:18">
@@ -7174,7 +7174,7 @@
         <v>1</v>
       </c>
       <c r="Q112">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="R112">
         <v>25</v>
@@ -7224,7 +7224,7 @@
         <v>0</v>
       </c>
       <c r="Q113">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="114" spans="1:18">
@@ -7274,7 +7274,7 @@
         <v>1</v>
       </c>
       <c r="Q114">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="R114">
         <v>20</v>
@@ -7324,7 +7324,7 @@
         <v>0</v>
       </c>
       <c r="Q115">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="116" spans="1:18">
@@ -7371,7 +7371,7 @@
         <v>0</v>
       </c>
       <c r="Q116">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="117" spans="1:18">
@@ -7418,7 +7418,7 @@
         <v>0</v>
       </c>
       <c r="Q117">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="118" spans="1:18">
@@ -7468,7 +7468,7 @@
         <v>1</v>
       </c>
       <c r="Q118">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="R118">
         <v>19</v>
@@ -7518,7 +7518,7 @@
         <v>0</v>
       </c>
       <c r="Q119">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="120" spans="1:18">
@@ -7568,7 +7568,7 @@
         <v>1</v>
       </c>
       <c r="Q120">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="R120">
         <v>7</v>
@@ -7621,7 +7621,7 @@
         <v>0</v>
       </c>
       <c r="Q121">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="122" spans="1:18">
@@ -7671,7 +7671,7 @@
         <v>1</v>
       </c>
       <c r="Q122">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="R122">
         <v>18</v>
@@ -7724,7 +7724,7 @@
         <v>0</v>
       </c>
       <c r="Q123">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="124" spans="1:18">
@@ -7774,7 +7774,7 @@
         <v>1</v>
       </c>
       <c r="Q124">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="R124">
         <v>7</v>
@@ -7824,7 +7824,7 @@
         <v>0</v>
       </c>
       <c r="Q125">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="126" spans="1:18">
@@ -7874,7 +7874,7 @@
         <v>1</v>
       </c>
       <c r="Q126">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="R126">
         <v>16</v>
@@ -7924,7 +7924,7 @@
         <v>0</v>
       </c>
       <c r="Q127">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="128" spans="1:18">
@@ -7974,7 +7974,7 @@
         <v>1</v>
       </c>
       <c r="Q128">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="R128">
         <v>23</v>
@@ -8024,7 +8024,7 @@
         <v>0</v>
       </c>
       <c r="Q129">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="130" spans="1:18">
@@ -8071,7 +8071,7 @@
         <v>0</v>
       </c>
       <c r="Q130">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="131" spans="1:18">
@@ -8118,7 +8118,7 @@
         <v>0</v>
       </c>
       <c r="Q131">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="132" spans="1:18">
@@ -8165,7 +8165,7 @@
         <v>0</v>
       </c>
       <c r="Q132">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="133" spans="1:18">
@@ -8212,7 +8212,7 @@
         <v>0</v>
       </c>
       <c r="Q133">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="134" spans="1:18">
@@ -8259,7 +8259,7 @@
         <v>0</v>
       </c>
       <c r="Q134">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="135" spans="1:18">
@@ -8306,7 +8306,7 @@
         <v>0</v>
       </c>
       <c r="Q135">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="136" spans="1:18">
@@ -8353,7 +8353,7 @@
         <v>0</v>
       </c>
       <c r="Q136">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="137" spans="1:18">
@@ -8403,7 +8403,7 @@
         <v>1</v>
       </c>
       <c r="Q137">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="R137">
         <v>30</v>
@@ -8453,7 +8453,7 @@
         <v>0</v>
       </c>
       <c r="Q138">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="139" spans="1:18">
@@ -8503,7 +8503,7 @@
         <v>1</v>
       </c>
       <c r="Q139">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="R139">
         <v>6</v>
@@ -8553,7 +8553,7 @@
         <v>0</v>
       </c>
       <c r="Q140">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="141" spans="1:18">
@@ -8603,7 +8603,7 @@
         <v>1</v>
       </c>
       <c r="Q141">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="R141">
         <v>17</v>
@@ -8653,7 +8653,7 @@
         <v>0</v>
       </c>
       <c r="Q142">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="143" spans="1:18">
@@ -8703,7 +8703,7 @@
         <v>1</v>
       </c>
       <c r="Q143">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="R143">
         <v>23</v>
@@ -8756,7 +8756,7 @@
         <v>1</v>
       </c>
       <c r="Q144">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="R144">
         <v>18</v>
@@ -8809,7 +8809,7 @@
         <v>0</v>
       </c>
       <c r="Q145">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="146" spans="1:18">
@@ -8859,7 +8859,7 @@
         <v>1</v>
       </c>
       <c r="Q146">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="R146">
         <v>6</v>
@@ -8909,7 +8909,7 @@
         <v>0</v>
       </c>
       <c r="Q147">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="148" spans="1:18">
@@ -8956,7 +8956,7 @@
         <v>0</v>
       </c>
       <c r="Q148">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="149" spans="1:18">
@@ -9003,7 +9003,7 @@
         <v>0</v>
       </c>
       <c r="Q149">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="150" spans="1:18">
@@ -9050,7 +9050,7 @@
         <v>0</v>
       </c>
       <c r="Q150">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="151" spans="1:18">
@@ -9100,7 +9100,7 @@
         <v>1</v>
       </c>
       <c r="Q151">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="R151">
         <v>16</v>
@@ -9153,7 +9153,7 @@
         <v>0</v>
       </c>
       <c r="Q152">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="153" spans="1:18">
@@ -9203,7 +9203,7 @@
         <v>1</v>
       </c>
       <c r="Q153">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="R153">
         <v>18</v>
@@ -9253,7 +9253,7 @@
         <v>0</v>
       </c>
       <c r="Q154">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="155" spans="1:18">
@@ -9297,7 +9297,7 @@
         <v>0</v>
       </c>
       <c r="Q155">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="156" spans="1:18">
@@ -9344,7 +9344,7 @@
         <v>0</v>
       </c>
       <c r="Q156">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="157" spans="1:18">
@@ -9391,7 +9391,7 @@
         <v>0</v>
       </c>
       <c r="Q157">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="158" spans="1:18">
@@ -9441,7 +9441,7 @@
         <v>1</v>
       </c>
       <c r="Q158">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="R158">
         <v>27</v>
@@ -9491,7 +9491,7 @@
         <v>0</v>
       </c>
       <c r="Q159">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="160" spans="1:18">
@@ -9541,7 +9541,7 @@
         <v>1</v>
       </c>
       <c r="Q160">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="R160">
         <v>23</v>
@@ -9594,7 +9594,7 @@
         <v>0</v>
       </c>
       <c r="Q161">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="162" spans="1:18">
@@ -9641,7 +9641,7 @@
         <v>0</v>
       </c>
       <c r="Q162">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="163" spans="1:18">
@@ -9688,7 +9688,7 @@
         <v>1</v>
       </c>
       <c r="Q163">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="R163">
         <v>25</v>
@@ -9741,7 +9741,7 @@
         <v>1</v>
       </c>
       <c r="Q164">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="R164">
         <v>15</v>
@@ -9791,7 +9791,7 @@
         <v>0</v>
       </c>
       <c r="Q165">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="166" spans="1:18">
@@ -9838,7 +9838,7 @@
         <v>0</v>
       </c>
       <c r="Q166">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="167" spans="1:18">
@@ -9885,7 +9885,7 @@
         <v>0</v>
       </c>
       <c r="Q167">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="168" spans="1:18">
@@ -9935,7 +9935,7 @@
         <v>0</v>
       </c>
       <c r="Q168">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="169" spans="1:18">
@@ -9985,7 +9985,7 @@
         <v>1</v>
       </c>
       <c r="Q169">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="R169">
         <v>24</v>
@@ -10038,7 +10038,7 @@
         <v>0</v>
       </c>
       <c r="Q170">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="171" spans="1:18">
@@ -10088,7 +10088,7 @@
         <v>1</v>
       </c>
       <c r="Q171">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="R171">
         <v>10</v>
@@ -10138,7 +10138,7 @@
         <v>0</v>
       </c>
       <c r="Q172">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="173" spans="1:18">
@@ -10188,7 +10188,7 @@
         <v>1</v>
       </c>
       <c r="Q173">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="R173">
         <v>4</v>
@@ -10238,7 +10238,7 @@
         <v>0</v>
       </c>
       <c r="Q174">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="175" spans="1:18">
@@ -10282,7 +10282,7 @@
         <v>0</v>
       </c>
       <c r="Q175">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="176" spans="1:18">
@@ -10329,7 +10329,7 @@
         <v>0</v>
       </c>
       <c r="Q176">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="177" spans="1:18">
@@ -10376,7 +10376,7 @@
         <v>0</v>
       </c>
       <c r="Q177">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="178" spans="1:18">
@@ -10423,7 +10423,7 @@
         <v>0</v>
       </c>
       <c r="Q178">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="179" spans="1:18">
@@ -10470,7 +10470,7 @@
         <v>0</v>
       </c>
       <c r="Q179">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="180" spans="1:18">
@@ -10520,7 +10520,7 @@
         <v>1</v>
       </c>
       <c r="Q180">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="R180">
         <v>21</v>
@@ -10573,7 +10573,7 @@
         <v>0</v>
       </c>
       <c r="Q181">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="182" spans="1:18">
@@ -10623,7 +10623,7 @@
         <v>1</v>
       </c>
       <c r="Q182">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="R182">
         <v>14</v>
@@ -10676,7 +10676,7 @@
         <v>0</v>
       </c>
       <c r="Q183">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="184" spans="1:18">
@@ -10726,7 +10726,7 @@
         <v>1</v>
       </c>
       <c r="Q184">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="R184">
         <v>24</v>
@@ -10779,7 +10779,7 @@
         <v>0</v>
       </c>
       <c r="Q185">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="186" spans="1:18">
@@ -10826,7 +10826,7 @@
         <v>0</v>
       </c>
       <c r="Q186">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="187" spans="1:18">
@@ -10873,7 +10873,7 @@
         <v>0</v>
       </c>
       <c r="Q187">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="188" spans="1:18">
@@ -10920,7 +10920,7 @@
         <v>0</v>
       </c>
       <c r="Q188">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="189" spans="1:18">
@@ -10967,7 +10967,7 @@
         <v>0</v>
       </c>
       <c r="Q189">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="190" spans="1:18">
@@ -11014,7 +11014,7 @@
         <v>0</v>
       </c>
       <c r="Q190">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="191" spans="1:18">
@@ -11061,7 +11061,7 @@
         <v>0</v>
       </c>
       <c r="Q191">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="192" spans="1:18">
@@ -11108,7 +11108,7 @@
         <v>0</v>
       </c>
       <c r="Q192">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="193" spans="1:18">
@@ -11155,7 +11155,7 @@
         <v>0</v>
       </c>
       <c r="Q193">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="194" spans="1:18">
@@ -11202,7 +11202,7 @@
         <v>0</v>
       </c>
       <c r="Q194">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="195" spans="1:18">
@@ -11249,7 +11249,7 @@
         <v>0</v>
       </c>
       <c r="Q195">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="196" spans="1:18">
@@ -11299,7 +11299,7 @@
         <v>1</v>
       </c>
       <c r="Q196">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="R196">
         <v>25</v>
@@ -11349,7 +11349,7 @@
         <v>0</v>
       </c>
       <c r="Q197">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="198" spans="1:18">
@@ -11396,7 +11396,7 @@
         <v>0</v>
       </c>
       <c r="Q198">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="199" spans="1:18">
@@ -11443,7 +11443,7 @@
         <v>0</v>
       </c>
       <c r="Q199">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="200" spans="1:18">
@@ -11490,7 +11490,7 @@
         <v>0</v>
       </c>
       <c r="Q200">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="201" spans="1:18">
@@ -11537,7 +11537,7 @@
         <v>0</v>
       </c>
       <c r="Q201">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="202" spans="1:18">
@@ -11587,7 +11587,7 @@
         <v>1</v>
       </c>
       <c r="Q202">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="R202">
         <v>21</v>
@@ -11637,7 +11637,7 @@
         <v>0</v>
       </c>
       <c r="Q203">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="204" spans="1:18">
@@ -11687,7 +11687,7 @@
         <v>1</v>
       </c>
       <c r="Q204">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="R204">
         <v>23</v>
@@ -11737,7 +11737,7 @@
         <v>0</v>
       </c>
       <c r="Q205">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="206" spans="1:18">
@@ -11787,7 +11787,7 @@
         <v>1</v>
       </c>
       <c r="Q206">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="R206">
         <v>18</v>
@@ -11840,7 +11840,7 @@
         <v>0</v>
       </c>
       <c r="Q207">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="208" spans="1:18">
@@ -11887,7 +11887,7 @@
         <v>0</v>
       </c>
       <c r="Q208">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="209" spans="1:18">
@@ -11937,7 +11937,7 @@
         <v>0</v>
       </c>
       <c r="Q209">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="210" spans="1:18">
@@ -11987,7 +11987,7 @@
         <v>1</v>
       </c>
       <c r="Q210">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="R210">
         <v>19</v>
@@ -12034,7 +12034,7 @@
         <v>0</v>
       </c>
       <c r="Q211">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="212" spans="1:18">
@@ -12084,7 +12084,7 @@
         <v>1</v>
       </c>
       <c r="Q212">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="R212">
         <v>1</v>
@@ -12128,10 +12128,10 @@
         <v>1</v>
       </c>
       <c r="P213" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q213">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="214" spans="1:18">
@@ -12178,7 +12178,7 @@
         <v>0</v>
       </c>
       <c r="Q214">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="215" spans="1:18">
@@ -12225,7 +12225,7 @@
         <v>0</v>
       </c>
       <c r="Q215">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="216" spans="1:18">
@@ -12272,7 +12272,7 @@
         <v>0</v>
       </c>
       <c r="Q216">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="217" spans="1:18">
@@ -12319,7 +12319,7 @@
         <v>0</v>
       </c>
       <c r="Q217">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="218" spans="1:18">
@@ -12360,10 +12360,10 @@
         <v>1</v>
       </c>
       <c r="P218" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q218">
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
     <row r="219" spans="1:18">
@@ -12413,7 +12413,7 @@
         <v>1</v>
       </c>
       <c r="Q219">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="R219">
         <v>17</v>
@@ -12466,7 +12466,7 @@
         <v>0</v>
       </c>
       <c r="Q220">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="221" spans="1:18">
@@ -12513,7 +12513,7 @@
         <v>0</v>
       </c>
       <c r="Q221">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="222" spans="1:18">
@@ -12560,7 +12560,7 @@
         <v>0</v>
       </c>
       <c r="Q222">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="223" spans="1:18">
@@ -12610,7 +12610,7 @@
         <v>1</v>
       </c>
       <c r="Q223">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="R223">
         <v>23</v>
@@ -12660,7 +12660,7 @@
         <v>0</v>
       </c>
       <c r="Q224">
-        <v>77</v>
+        <v>72</v>
       </c>
     </row>
     <row r="225" spans="1:18">
@@ -12707,7 +12707,7 @@
         <v>0</v>
       </c>
       <c r="Q225">
-        <v>77</v>
+        <v>72</v>
       </c>
     </row>
     <row r="226" spans="1:18">
@@ -12757,7 +12757,7 @@
         <v>1</v>
       </c>
       <c r="Q226">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="R226">
         <v>18</v>
@@ -12810,7 +12810,7 @@
         <v>0</v>
       </c>
       <c r="Q227">
-        <v>78</v>
+        <v>73</v>
       </c>
     </row>
     <row r="228" spans="1:18">
@@ -12857,7 +12857,7 @@
         <v>0</v>
       </c>
       <c r="Q228">
-        <v>78</v>
+        <v>73</v>
       </c>
     </row>
     <row r="229" spans="1:18">
@@ -12904,7 +12904,7 @@
         <v>0</v>
       </c>
       <c r="Q229">
-        <v>78</v>
+        <v>73</v>
       </c>
     </row>
     <row r="230" spans="1:18">
@@ -12951,7 +12951,7 @@
         <v>0</v>
       </c>
       <c r="Q230">
-        <v>78</v>
+        <v>73</v>
       </c>
     </row>
     <row r="231" spans="1:18">
@@ -12998,7 +12998,7 @@
         <v>0</v>
       </c>
       <c r="Q231">
-        <v>78</v>
+        <v>73</v>
       </c>
     </row>
     <row r="232" spans="1:18">
@@ -13045,7 +13045,7 @@
         <v>0</v>
       </c>
       <c r="Q232">
-        <v>78</v>
+        <v>73</v>
       </c>
     </row>
     <row r="233" spans="1:18">
@@ -13092,7 +13092,7 @@
         <v>0</v>
       </c>
       <c r="Q233">
-        <v>78</v>
+        <v>73</v>
       </c>
     </row>
     <row r="234" spans="1:18">
@@ -13142,7 +13142,7 @@
         <v>1</v>
       </c>
       <c r="Q234">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="R234">
         <v>30</v>
@@ -13195,7 +13195,7 @@
         <v>0</v>
       </c>
       <c r="Q235">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="236" spans="1:18">
@@ -13242,7 +13242,7 @@
         <v>0</v>
       </c>
       <c r="Q236">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="237" spans="1:18">
@@ -13286,7 +13286,7 @@
         <v>0</v>
       </c>
       <c r="Q237">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="238" spans="1:18">
@@ -13336,7 +13336,7 @@
         <v>0</v>
       </c>
       <c r="Q238">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="239" spans="1:18">
@@ -13383,7 +13383,7 @@
         <v>0</v>
       </c>
       <c r="Q239">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="240" spans="1:18">
@@ -13436,7 +13436,7 @@
         <v>1</v>
       </c>
       <c r="Q240">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="R240">
         <v>20</v>
@@ -13486,7 +13486,7 @@
         <v>0</v>
       </c>
       <c r="Q241">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="242" spans="1:18">
@@ -13533,7 +13533,7 @@
         <v>0</v>
       </c>
       <c r="Q242">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="243" spans="1:18">
@@ -13580,7 +13580,7 @@
         <v>0</v>
       </c>
       <c r="Q243">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="244" spans="1:18">
@@ -13630,7 +13630,7 @@
         <v>1</v>
       </c>
       <c r="Q244">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="R244">
         <v>13</v>
@@ -13683,7 +13683,7 @@
         <v>1</v>
       </c>
       <c r="Q245">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="R245">
         <v>23</v>
@@ -13736,7 +13736,7 @@
         <v>0</v>
       </c>
       <c r="Q246">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="247" spans="1:18">
@@ -13786,7 +13786,7 @@
         <v>1</v>
       </c>
       <c r="Q247">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="R247">
         <v>8</v>
@@ -13836,7 +13836,7 @@
         <v>0</v>
       </c>
       <c r="Q248">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="249" spans="1:18">
@@ -13880,7 +13880,7 @@
         <v>0</v>
       </c>
       <c r="Q249">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="250" spans="1:18">
@@ -13930,7 +13930,7 @@
         <v>1</v>
       </c>
       <c r="Q250">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="R250">
         <v>16</v>
@@ -13983,7 +13983,7 @@
         <v>1</v>
       </c>
       <c r="Q251">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="R251">
         <v>0</v>
@@ -14033,7 +14033,7 @@
         <v>0</v>
       </c>
       <c r="Q252">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="253" spans="1:18">
@@ -14080,7 +14080,7 @@
         <v>0</v>
       </c>
       <c r="Q253">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="254" spans="1:18">
@@ -14130,7 +14130,7 @@
         <v>1</v>
       </c>
       <c r="Q254">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="R254">
         <v>14</v>
@@ -14180,7 +14180,7 @@
         <v>0</v>
       </c>
       <c r="Q255">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="256" spans="1:18">
@@ -14227,7 +14227,7 @@
         <v>0</v>
       </c>
       <c r="Q256">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="257" spans="1:18">
@@ -14277,7 +14277,7 @@
         <v>0</v>
       </c>
       <c r="Q257">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="258" spans="1:18">
@@ -14327,7 +14327,7 @@
         <v>1</v>
       </c>
       <c r="Q258">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="R258">
         <v>20</v>
@@ -14374,7 +14374,7 @@
         <v>0</v>
       </c>
       <c r="Q259">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="260" spans="1:18">
@@ -14421,7 +14421,7 @@
         <v>0</v>
       </c>
       <c r="Q260">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="261" spans="1:18">
@@ -14468,7 +14468,7 @@
         <v>0</v>
       </c>
       <c r="Q261">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="262" spans="1:18">
@@ -14518,7 +14518,7 @@
         <v>1</v>
       </c>
       <c r="Q262">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="R262">
         <v>19</v>
@@ -14571,7 +14571,7 @@
         <v>1</v>
       </c>
       <c r="Q263">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="R263">
         <v>21</v>
@@ -14624,7 +14624,7 @@
         <v>1</v>
       </c>
       <c r="Q264">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="R264">
         <v>21</v>
@@ -14677,7 +14677,7 @@
         <v>0</v>
       </c>
       <c r="Q265">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="266" spans="1:18">
@@ -14727,7 +14727,7 @@
         <v>1</v>
       </c>
       <c r="Q266">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="R266">
         <v>9</v>
@@ -14780,7 +14780,7 @@
         <v>0</v>
       </c>
       <c r="Q267">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="268" spans="1:18">
@@ -14830,7 +14830,7 @@
         <v>1</v>
       </c>
       <c r="Q268">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="R268">
         <v>9</v>
@@ -14880,7 +14880,7 @@
         <v>0</v>
       </c>
       <c r="Q269">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="270" spans="1:18">
@@ -14927,7 +14927,7 @@
         <v>0</v>
       </c>
       <c r="Q270">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="271" spans="1:18">
@@ -14974,7 +14974,7 @@
         <v>0</v>
       </c>
       <c r="Q271">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="272" spans="1:18">
@@ -15021,7 +15021,7 @@
         <v>0</v>
       </c>
       <c r="Q272">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="273" spans="1:18">
@@ -15068,7 +15068,7 @@
         <v>0</v>
       </c>
       <c r="Q273">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="274" spans="1:18">
@@ -15115,7 +15115,7 @@
         <v>0</v>
       </c>
       <c r="Q274">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="275" spans="1:18">
@@ -15165,7 +15165,7 @@
         <v>1</v>
       </c>
       <c r="Q275">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="R275">
         <v>18</v>
@@ -15218,7 +15218,7 @@
         <v>1</v>
       </c>
       <c r="Q276">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="R276">
         <v>14</v>
@@ -15271,7 +15271,7 @@
         <v>1</v>
       </c>
       <c r="Q277">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="R277">
         <v>12</v>
@@ -15321,7 +15321,7 @@
         <v>0</v>
       </c>
       <c r="Q278">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="279" spans="1:18">
@@ -15371,7 +15371,7 @@
         <v>1</v>
       </c>
       <c r="Q279">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="R279">
         <v>13</v>
@@ -15424,7 +15424,7 @@
         <v>0</v>
       </c>
       <c r="Q280">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="281" spans="1:18">
@@ -15474,7 +15474,7 @@
         <v>1</v>
       </c>
       <c r="Q281">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="R281">
         <v>17</v>
@@ -15527,7 +15527,7 @@
         <v>0</v>
       </c>
       <c r="Q282">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="283" spans="1:18">
@@ -15574,7 +15574,7 @@
         <v>0</v>
       </c>
       <c r="Q283">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="284" spans="1:18">
@@ -15621,7 +15621,7 @@
         <v>0</v>
       </c>
       <c r="Q284">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="285" spans="1:18">
@@ -15668,7 +15668,7 @@
         <v>0</v>
       </c>
       <c r="Q285">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="286" spans="1:18">
@@ -15715,7 +15715,7 @@
         <v>0</v>
       </c>
       <c r="Q286">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="287" spans="1:18">
@@ -15762,7 +15762,7 @@
         <v>0</v>
       </c>
       <c r="Q287">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="288" spans="1:18">
@@ -15812,7 +15812,7 @@
         <v>1</v>
       </c>
       <c r="Q288">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="R288">
         <v>2</v>
@@ -15865,7 +15865,7 @@
         <v>1</v>
       </c>
       <c r="Q289">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="R289">
         <v>17</v>
@@ -15915,7 +15915,7 @@
         <v>0</v>
       </c>
       <c r="Q290">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="291" spans="1:18">
@@ -15962,7 +15962,7 @@
         <v>0</v>
       </c>
       <c r="Q291">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="292" spans="1:18">
@@ -16012,7 +16012,7 @@
         <v>0</v>
       </c>
       <c r="Q292">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="293" spans="1:18">
@@ -16059,7 +16059,7 @@
         <v>0</v>
       </c>
       <c r="Q293">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="294" spans="1:18">
@@ -16106,7 +16106,7 @@
         <v>0</v>
       </c>
       <c r="Q294">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="295" spans="1:18">
@@ -16153,7 +16153,7 @@
         <v>0</v>
       </c>
       <c r="Q295">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="296" spans="1:18">
@@ -16203,7 +16203,7 @@
         <v>1</v>
       </c>
       <c r="Q296">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="R296">
         <v>26</v>
@@ -16256,7 +16256,7 @@
         <v>0</v>
       </c>
       <c r="Q297">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="298" spans="1:18">
@@ -16306,7 +16306,7 @@
         <v>1</v>
       </c>
       <c r="Q298">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="R298">
         <v>2</v>
@@ -16356,7 +16356,7 @@
         <v>0</v>
       </c>
       <c r="Q299">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="300" spans="1:18">
@@ -16406,7 +16406,7 @@
         <v>1</v>
       </c>
       <c r="Q300">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="R300">
         <v>18</v>
@@ -16456,7 +16456,7 @@
         <v>0</v>
       </c>
       <c r="Q301">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="302" spans="1:18">
@@ -16503,7 +16503,7 @@
         <v>0</v>
       </c>
       <c r="Q302">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="303" spans="1:18">
@@ -16553,7 +16553,7 @@
         <v>0</v>
       </c>
       <c r="Q303">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="304" spans="1:18">
@@ -16600,7 +16600,7 @@
         <v>0</v>
       </c>
       <c r="Q304">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="305" spans="1:18">
@@ -16647,7 +16647,7 @@
         <v>0</v>
       </c>
       <c r="Q305">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="306" spans="1:18">
@@ -16694,7 +16694,7 @@
         <v>0</v>
       </c>
       <c r="Q306">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="307" spans="1:18">
@@ -16741,7 +16741,7 @@
         <v>0</v>
       </c>
       <c r="Q307">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="308" spans="1:18">
@@ -16788,7 +16788,7 @@
         <v>0</v>
       </c>
       <c r="Q308">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="309" spans="1:18">
@@ -16838,7 +16838,7 @@
         <v>1</v>
       </c>
       <c r="Q309">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="R309">
         <v>17</v>
@@ -16891,7 +16891,7 @@
         <v>1</v>
       </c>
       <c r="Q310">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="R310">
         <v>14</v>
@@ -16944,7 +16944,7 @@
         <v>1</v>
       </c>
       <c r="Q311">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="R311">
         <v>15</v>
@@ -16997,7 +16997,7 @@
         <v>0</v>
       </c>
       <c r="Q312">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="313" spans="1:18">
@@ -17047,7 +17047,7 @@
         <v>1</v>
       </c>
       <c r="Q313">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="R313">
         <v>11</v>
@@ -17097,7 +17097,7 @@
         <v>0</v>
       </c>
       <c r="Q314">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="315" spans="1:18">
@@ -17147,7 +17147,7 @@
         <v>1</v>
       </c>
       <c r="Q315">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="R315">
         <v>17</v>
@@ -17197,7 +17197,7 @@
         <v>0</v>
       </c>
       <c r="Q316">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="317" spans="1:18">
@@ -17244,7 +17244,7 @@
         <v>0</v>
       </c>
       <c r="Q317">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="318" spans="1:18">
@@ -17291,7 +17291,7 @@
         <v>0</v>
       </c>
       <c r="Q318">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="319" spans="1:18">
@@ -17338,7 +17338,7 @@
         <v>0</v>
       </c>
       <c r="Q319">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="320" spans="1:18">
@@ -17385,7 +17385,7 @@
         <v>0</v>
       </c>
       <c r="Q320">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="321" spans="1:18">
@@ -17435,7 +17435,7 @@
         <v>1</v>
       </c>
       <c r="Q321">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="R321">
         <v>19</v>
@@ -17485,7 +17485,7 @@
         <v>0</v>
       </c>
       <c r="Q322">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="323" spans="1:18">
@@ -17532,7 +17532,7 @@
         <v>0</v>
       </c>
       <c r="Q323">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="324" spans="1:18">
@@ -17579,7 +17579,7 @@
         <v>0</v>
       </c>
       <c r="Q324">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="325" spans="1:18">
@@ -17626,7 +17626,7 @@
         <v>0</v>
       </c>
       <c r="Q325">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="326" spans="1:18">
@@ -17673,7 +17673,7 @@
         <v>0</v>
       </c>
       <c r="Q326">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="327" spans="1:18">
@@ -17720,7 +17720,7 @@
         <v>0</v>
       </c>
       <c r="Q327">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="328" spans="1:18">
@@ -17767,7 +17767,7 @@
         <v>0</v>
       </c>
       <c r="Q328">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="329" spans="1:18">
@@ -17817,7 +17817,7 @@
         <v>1</v>
       </c>
       <c r="Q329">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="R329">
         <v>24</v>
@@ -17867,7 +17867,7 @@
         <v>0</v>
       </c>
       <c r="Q330">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="331" spans="1:18">
@@ -17914,7 +17914,7 @@
         <v>0</v>
       </c>
       <c r="Q331">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="332" spans="1:18">
@@ -17964,7 +17964,7 @@
         <v>1</v>
       </c>
       <c r="Q332">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="R332">
         <v>17</v>
@@ -18014,7 +18014,7 @@
         <v>0</v>
       </c>
       <c r="Q333">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="334" spans="1:18">
@@ -18064,7 +18064,7 @@
         <v>0</v>
       </c>
       <c r="Q334">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="335" spans="1:18">
@@ -18111,7 +18111,7 @@
         <v>0</v>
       </c>
       <c r="Q335">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="336" spans="1:18">
@@ -18161,7 +18161,7 @@
         <v>0</v>
       </c>
       <c r="Q336">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="337" spans="1:18">
@@ -18208,7 +18208,7 @@
         <v>0</v>
       </c>
       <c r="Q337">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="338" spans="1:18">
@@ -18255,7 +18255,7 @@
         <v>0</v>
       </c>
       <c r="Q338">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="339" spans="1:18">
@@ -18302,7 +18302,7 @@
         <v>0</v>
       </c>
       <c r="Q339">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="340" spans="1:18">
@@ -18352,7 +18352,7 @@
         <v>1</v>
       </c>
       <c r="Q340">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="R340">
         <v>16</v>
@@ -18402,7 +18402,7 @@
         <v>0</v>
       </c>
       <c r="Q341">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="342" spans="1:18">
@@ -18449,7 +18449,7 @@
         <v>0</v>
       </c>
       <c r="Q342">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="343" spans="1:18">
@@ -18499,7 +18499,7 @@
         <v>1</v>
       </c>
       <c r="Q343">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="R343">
         <v>16</v>
@@ -18552,7 +18552,7 @@
         <v>1</v>
       </c>
       <c r="Q344">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="R344">
         <v>12</v>
@@ -18605,7 +18605,7 @@
         <v>1</v>
       </c>
       <c r="Q345">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="R345">
         <v>0</v>
@@ -18649,10 +18649,10 @@
         <v>1</v>
       </c>
       <c r="P346" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q346">
-        <v>115</v>
+        <v>109</v>
       </c>
     </row>
     <row r="347" spans="1:18">
@@ -18699,7 +18699,7 @@
         <v>0</v>
       </c>
       <c r="Q347">
-        <v>115</v>
+        <v>109</v>
       </c>
     </row>
     <row r="348" spans="1:18">
@@ -18746,7 +18746,7 @@
         <v>0</v>
       </c>
       <c r="Q348">
-        <v>115</v>
+        <v>109</v>
       </c>
     </row>
     <row r="349" spans="1:18">
@@ -18793,7 +18793,7 @@
         <v>0</v>
       </c>
       <c r="Q349">
-        <v>115</v>
+        <v>109</v>
       </c>
     </row>
     <row r="350" spans="1:18">
@@ -18840,7 +18840,7 @@
         <v>0</v>
       </c>
       <c r="Q350">
-        <v>115</v>
+        <v>109</v>
       </c>
     </row>
     <row r="351" spans="1:18">
@@ -18887,7 +18887,7 @@
         <v>0</v>
       </c>
       <c r="Q351">
-        <v>115</v>
+        <v>109</v>
       </c>
     </row>
     <row r="352" spans="1:18">
@@ -18934,7 +18934,7 @@
         <v>0</v>
       </c>
       <c r="Q352">
-        <v>115</v>
+        <v>109</v>
       </c>
     </row>
     <row r="353" spans="1:18">
@@ -18975,10 +18975,10 @@
         <v>1</v>
       </c>
       <c r="P353" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q353">
-        <v>116</v>
+        <v>109</v>
       </c>
     </row>
     <row r="354" spans="1:18">
@@ -19028,7 +19028,7 @@
         <v>1</v>
       </c>
       <c r="Q354">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="R354">
         <v>16</v>
@@ -19081,7 +19081,7 @@
         <v>0</v>
       </c>
       <c r="Q355">
-        <v>117</v>
+        <v>110</v>
       </c>
     </row>
     <row r="356" spans="1:18">
@@ -19131,7 +19131,7 @@
         <v>1</v>
       </c>
       <c r="Q356">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="R356">
         <v>18</v>
@@ -19184,7 +19184,7 @@
         <v>0</v>
       </c>
       <c r="Q357">
-        <v>118</v>
+        <v>111</v>
       </c>
     </row>
     <row r="358" spans="1:18">
@@ -19234,7 +19234,7 @@
         <v>1</v>
       </c>
       <c r="Q358">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="R358">
         <v>4</v>
@@ -19284,7 +19284,7 @@
         <v>0</v>
       </c>
       <c r="Q359">
-        <v>119</v>
+        <v>112</v>
       </c>
     </row>
     <row r="360" spans="1:18">
@@ -19331,7 +19331,7 @@
         <v>0</v>
       </c>
       <c r="Q360">
-        <v>119</v>
+        <v>112</v>
       </c>
     </row>
     <row r="361" spans="1:18">
@@ -19378,7 +19378,7 @@
         <v>0</v>
       </c>
       <c r="Q361">
-        <v>119</v>
+        <v>112</v>
       </c>
     </row>
     <row r="362" spans="1:18">
@@ -19428,7 +19428,7 @@
         <v>1</v>
       </c>
       <c r="Q362">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="R362">
         <v>27</v>
@@ -19478,7 +19478,7 @@
         <v>0</v>
       </c>
       <c r="Q363">
-        <v>120</v>
+        <v>113</v>
       </c>
     </row>
     <row r="364" spans="1:18">
@@ -19528,7 +19528,7 @@
         <v>1</v>
       </c>
       <c r="Q364">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="R364">
         <v>18</v>
@@ -19581,7 +19581,7 @@
         <v>0</v>
       </c>
       <c r="Q365">
-        <v>121</v>
+        <v>114</v>
       </c>
     </row>
     <row r="366" spans="1:18">
@@ -19628,7 +19628,7 @@
         <v>0</v>
       </c>
       <c r="Q366">
-        <v>121</v>
+        <v>114</v>
       </c>
     </row>
     <row r="367" spans="1:18">
@@ -19675,7 +19675,7 @@
         <v>0</v>
       </c>
       <c r="Q367">
-        <v>121</v>
+        <v>114</v>
       </c>
     </row>
     <row r="368" spans="1:18">
@@ -19722,7 +19722,7 @@
         <v>0</v>
       </c>
       <c r="Q368">
-        <v>121</v>
+        <v>114</v>
       </c>
     </row>
     <row r="369" spans="1:18">
@@ -19769,7 +19769,7 @@
         <v>0</v>
       </c>
       <c r="Q369">
-        <v>121</v>
+        <v>114</v>
       </c>
     </row>
     <row r="370" spans="1:18">
@@ -19819,7 +19819,7 @@
         <v>1</v>
       </c>
       <c r="Q370">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="R370">
         <v>21</v>
@@ -19869,7 +19869,7 @@
         <v>0</v>
       </c>
       <c r="Q371">
-        <v>122</v>
+        <v>115</v>
       </c>
     </row>
     <row r="372" spans="1:18">
@@ -19916,7 +19916,7 @@
         <v>0</v>
       </c>
       <c r="Q372">
-        <v>122</v>
+        <v>115</v>
       </c>
     </row>
     <row r="373" spans="1:18">
@@ -19963,7 +19963,7 @@
         <v>0</v>
       </c>
       <c r="Q373">
-        <v>122</v>
+        <v>115</v>
       </c>
     </row>
     <row r="374" spans="1:18">
@@ -20010,7 +20010,7 @@
         <v>0</v>
       </c>
       <c r="Q374">
-        <v>122</v>
+        <v>115</v>
       </c>
     </row>
     <row r="375" spans="1:18">
@@ -20057,7 +20057,7 @@
         <v>0</v>
       </c>
       <c r="Q375">
-        <v>122</v>
+        <v>115</v>
       </c>
     </row>
     <row r="376" spans="1:18">
@@ -20107,7 +20107,7 @@
         <v>1</v>
       </c>
       <c r="Q376">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="R376">
         <v>18</v>
@@ -20157,7 +20157,7 @@
         <v>0</v>
       </c>
       <c r="Q377">
-        <v>123</v>
+        <v>116</v>
       </c>
     </row>
     <row r="378" spans="1:18">
@@ -20204,7 +20204,7 @@
         <v>0</v>
       </c>
       <c r="Q378">
-        <v>123</v>
+        <v>116</v>
       </c>
     </row>
     <row r="379" spans="1:18">
@@ -20251,7 +20251,7 @@
         <v>0</v>
       </c>
       <c r="Q379">
-        <v>123</v>
+        <v>116</v>
       </c>
     </row>
     <row r="380" spans="1:18">
@@ -20298,7 +20298,7 @@
         <v>0</v>
       </c>
       <c r="Q380">
-        <v>123</v>
+        <v>116</v>
       </c>
     </row>
     <row r="381" spans="1:18">
@@ -20345,7 +20345,7 @@
         <v>0</v>
       </c>
       <c r="Q381">
-        <v>123</v>
+        <v>116</v>
       </c>
     </row>
     <row r="382" spans="1:18">
@@ -20395,7 +20395,7 @@
         <v>1</v>
       </c>
       <c r="Q382">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="R382">
         <v>9</v>
@@ -20448,7 +20448,7 @@
         <v>1</v>
       </c>
       <c r="Q383">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="R383">
         <v>19</v>
@@ -20501,7 +20501,7 @@
         <v>1</v>
       </c>
       <c r="Q384">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="R384">
         <v>21</v>
@@ -20551,7 +20551,7 @@
         <v>0</v>
       </c>
       <c r="Q385">
-        <v>126</v>
+        <v>119</v>
       </c>
     </row>
     <row r="386" spans="1:18">
@@ -20595,7 +20595,7 @@
         <v>0</v>
       </c>
       <c r="Q386">
-        <v>126</v>
+        <v>119</v>
       </c>
     </row>
     <row r="387" spans="1:18">
@@ -20642,7 +20642,7 @@
         <v>0</v>
       </c>
       <c r="Q387">
-        <v>126</v>
+        <v>119</v>
       </c>
     </row>
     <row r="388" spans="1:18">
@@ -20689,7 +20689,7 @@
         <v>0</v>
       </c>
       <c r="Q388">
-        <v>126</v>
+        <v>119</v>
       </c>
     </row>
     <row r="389" spans="1:18">
@@ -20739,7 +20739,7 @@
         <v>1</v>
       </c>
       <c r="Q389">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="R389">
         <v>12</v>
@@ -20789,7 +20789,7 @@
         <v>0</v>
       </c>
       <c r="Q390">
-        <v>127</v>
+        <v>120</v>
       </c>
     </row>
     <row r="391" spans="1:18">
@@ -20836,7 +20836,7 @@
         <v>0</v>
       </c>
       <c r="Q391">
-        <v>127</v>
+        <v>120</v>
       </c>
     </row>
     <row r="392" spans="1:18">
@@ -20883,7 +20883,7 @@
         <v>0</v>
       </c>
       <c r="Q392">
-        <v>127</v>
+        <v>120</v>
       </c>
     </row>
     <row r="393" spans="1:18">
@@ -20933,7 +20933,7 @@
         <v>1</v>
       </c>
       <c r="Q393">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="R393">
         <v>17</v>
@@ -20983,7 +20983,7 @@
         <v>0</v>
       </c>
       <c r="Q394">
-        <v>128</v>
+        <v>121</v>
       </c>
     </row>
     <row r="395" spans="1:18">
@@ -21030,7 +21030,7 @@
         <v>0</v>
       </c>
       <c r="Q395">
-        <v>128</v>
+        <v>121</v>
       </c>
     </row>
     <row r="396" spans="1:18">
@@ -21077,7 +21077,7 @@
         <v>0</v>
       </c>
       <c r="Q396">
-        <v>128</v>
+        <v>121</v>
       </c>
     </row>
     <row r="397" spans="1:18">
@@ -21124,7 +21124,7 @@
         <v>0</v>
       </c>
       <c r="Q397">
-        <v>128</v>
+        <v>121</v>
       </c>
     </row>
     <row r="398" spans="1:18">
@@ -21171,7 +21171,7 @@
         <v>0</v>
       </c>
       <c r="Q398">
-        <v>128</v>
+        <v>121</v>
       </c>
     </row>
     <row r="399" spans="1:18">
@@ -21221,7 +21221,7 @@
         <v>1</v>
       </c>
       <c r="Q399">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="R399">
         <v>15</v>
@@ -21274,7 +21274,7 @@
         <v>0</v>
       </c>
       <c r="Q400">
-        <v>129</v>
+        <v>122</v>
       </c>
     </row>
     <row r="401" spans="1:18">
@@ -21324,7 +21324,7 @@
         <v>1</v>
       </c>
       <c r="Q401">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="R401">
         <v>16</v>
@@ -21377,7 +21377,7 @@
         <v>1</v>
       </c>
       <c r="Q402">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="R402">
         <v>18</v>
@@ -21430,7 +21430,7 @@
         <v>0</v>
       </c>
       <c r="Q403">
-        <v>131</v>
+        <v>124</v>
       </c>
     </row>
     <row r="404" spans="1:18">
@@ -21477,7 +21477,7 @@
         <v>0</v>
       </c>
       <c r="Q404">
-        <v>131</v>
+        <v>124</v>
       </c>
     </row>
     <row r="405" spans="1:18">
@@ -21527,7 +21527,7 @@
         <v>0</v>
       </c>
       <c r="Q405">
-        <v>131</v>
+        <v>124</v>
       </c>
     </row>
     <row r="406" spans="1:18">
@@ -21577,7 +21577,7 @@
         <v>1</v>
       </c>
       <c r="Q406">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="R406">
         <v>28</v>
@@ -21630,7 +21630,7 @@
         <v>1</v>
       </c>
       <c r="Q407">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="R407">
         <v>24</v>
@@ -21683,7 +21683,7 @@
         <v>0</v>
       </c>
       <c r="Q408">
-        <v>133</v>
+        <v>126</v>
       </c>
     </row>
     <row r="409" spans="1:18">
@@ -21730,7 +21730,7 @@
         <v>0</v>
       </c>
       <c r="Q409">
-        <v>133</v>
+        <v>126</v>
       </c>
     </row>
     <row r="410" spans="1:18">
@@ -21780,7 +21780,7 @@
         <v>0</v>
       </c>
       <c r="Q410">
-        <v>133</v>
+        <v>126</v>
       </c>
     </row>
     <row r="411" spans="1:18">
@@ -21827,7 +21827,7 @@
         <v>0</v>
       </c>
       <c r="Q411">
-        <v>133</v>
+        <v>126</v>
       </c>
     </row>
     <row r="412" spans="1:18">
@@ -21877,7 +21877,7 @@
         <v>0</v>
       </c>
       <c r="Q412">
-        <v>133</v>
+        <v>126</v>
       </c>
     </row>
     <row r="413" spans="1:18">
@@ -21927,7 +21927,7 @@
         <v>1</v>
       </c>
       <c r="Q413">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="R413">
         <v>36</v>
@@ -21980,7 +21980,7 @@
         <v>0</v>
       </c>
       <c r="Q414">
-        <v>134</v>
+        <v>127</v>
       </c>
     </row>
     <row r="415" spans="1:18">
@@ -22030,7 +22030,7 @@
         <v>1</v>
       </c>
       <c r="Q415">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="R415">
         <v>13</v>
@@ -22083,7 +22083,7 @@
         <v>0</v>
       </c>
       <c r="Q416">
-        <v>135</v>
+        <v>128</v>
       </c>
     </row>
     <row r="417" spans="1:18">
@@ -22130,7 +22130,7 @@
         <v>0</v>
       </c>
       <c r="Q417">
-        <v>135</v>
+        <v>128</v>
       </c>
     </row>
     <row r="418" spans="1:18">
@@ -22180,7 +22180,7 @@
         <v>0</v>
       </c>
       <c r="Q418">
-        <v>135</v>
+        <v>128</v>
       </c>
     </row>
     <row r="419" spans="1:18">
@@ -22230,7 +22230,7 @@
         <v>1</v>
       </c>
       <c r="Q419">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="R419">
         <v>30</v>
@@ -22283,7 +22283,7 @@
         <v>1</v>
       </c>
       <c r="Q420">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="R420">
         <v>4</v>
@@ -22333,7 +22333,7 @@
         <v>0</v>
       </c>
       <c r="Q421">
-        <v>137</v>
+        <v>130</v>
       </c>
     </row>
     <row r="422" spans="1:18">
@@ -22383,7 +22383,7 @@
         <v>1</v>
       </c>
       <c r="Q422">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="R422">
         <v>11</v>
@@ -22436,7 +22436,7 @@
         <v>0</v>
       </c>
       <c r="Q423">
-        <v>138</v>
+        <v>131</v>
       </c>
     </row>
     <row r="424" spans="1:18">
@@ -22483,7 +22483,7 @@
         <v>0</v>
       </c>
       <c r="Q424">
-        <v>138</v>
+        <v>131</v>
       </c>
     </row>
     <row r="425" spans="1:18">
@@ -22530,7 +22530,7 @@
         <v>0</v>
       </c>
       <c r="Q425">
-        <v>138</v>
+        <v>131</v>
       </c>
     </row>
     <row r="426" spans="1:18">
@@ -22577,7 +22577,7 @@
         <v>0</v>
       </c>
       <c r="Q426">
-        <v>138</v>
+        <v>131</v>
       </c>
     </row>
     <row r="427" spans="1:18">
@@ -22624,7 +22624,7 @@
         <v>0</v>
       </c>
       <c r="Q427">
-        <v>138</v>
+        <v>131</v>
       </c>
     </row>
     <row r="428" spans="1:18">
@@ -22671,7 +22671,7 @@
         <v>0</v>
       </c>
       <c r="Q428">
-        <v>138</v>
+        <v>131</v>
       </c>
     </row>
     <row r="429" spans="1:18">
@@ -22718,7 +22718,7 @@
         <v>0</v>
       </c>
       <c r="Q429">
-        <v>138</v>
+        <v>131</v>
       </c>
     </row>
     <row r="430" spans="1:18">
@@ -22765,7 +22765,7 @@
         <v>0</v>
       </c>
       <c r="Q430">
-        <v>138</v>
+        <v>131</v>
       </c>
     </row>
     <row r="431" spans="1:18">
@@ -22812,7 +22812,7 @@
         <v>0</v>
       </c>
       <c r="Q431">
-        <v>138</v>
+        <v>131</v>
       </c>
     </row>
     <row r="432" spans="1:18">
@@ -22859,7 +22859,7 @@
         <v>0</v>
       </c>
       <c r="Q432">
-        <v>138</v>
+        <v>131</v>
       </c>
     </row>
     <row r="433" spans="1:18">
@@ -22909,7 +22909,7 @@
         <v>1</v>
       </c>
       <c r="Q433">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="R433">
         <v>15</v>
@@ -22959,7 +22959,7 @@
         <v>0</v>
       </c>
       <c r="Q434">
-        <v>139</v>
+        <v>132</v>
       </c>
     </row>
     <row r="435" spans="1:18">
@@ -23006,7 +23006,7 @@
         <v>0</v>
       </c>
       <c r="Q435">
-        <v>139</v>
+        <v>132</v>
       </c>
     </row>
     <row r="436" spans="1:18">
@@ -23053,7 +23053,7 @@
         <v>0</v>
       </c>
       <c r="Q436">
-        <v>139</v>
+        <v>132</v>
       </c>
     </row>
     <row r="437" spans="1:18">
@@ -23103,7 +23103,7 @@
         <v>1</v>
       </c>
       <c r="Q437">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="R437">
         <v>19</v>
@@ -23156,7 +23156,7 @@
         <v>1</v>
       </c>
       <c r="Q438">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="R438">
         <v>20</v>
@@ -23209,7 +23209,7 @@
         <v>1</v>
       </c>
       <c r="Q439">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="R439">
         <v>29</v>
@@ -23262,7 +23262,7 @@
         <v>0</v>
       </c>
       <c r="Q440">
-        <v>142</v>
+        <v>135</v>
       </c>
     </row>
     <row r="441" spans="1:18">
@@ -23312,7 +23312,7 @@
         <v>1</v>
       </c>
       <c r="Q441">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="R441">
         <v>25</v>
@@ -23365,7 +23365,7 @@
         <v>0</v>
       </c>
       <c r="Q442">
-        <v>143</v>
+        <v>136</v>
       </c>
     </row>
     <row r="443" spans="1:18">
@@ -23415,7 +23415,7 @@
         <v>1</v>
       </c>
       <c r="Q443">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="R443">
         <v>14</v>
@@ -23468,7 +23468,7 @@
         <v>0</v>
       </c>
       <c r="Q444">
-        <v>144</v>
+        <v>137</v>
       </c>
     </row>
     <row r="445" spans="1:18">
@@ -23515,7 +23515,7 @@
         <v>0</v>
       </c>
       <c r="Q445">
-        <v>144</v>
+        <v>137</v>
       </c>
     </row>
     <row r="446" spans="1:18">
@@ -23565,7 +23565,7 @@
         <v>0</v>
       </c>
       <c r="Q446">
-        <v>144</v>
+        <v>137</v>
       </c>
     </row>
     <row r="447" spans="1:18">
@@ -23615,7 +23615,7 @@
         <v>1</v>
       </c>
       <c r="Q447">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="R447">
         <v>21</v>
@@ -23662,7 +23662,7 @@
         <v>0</v>
       </c>
       <c r="Q448">
-        <v>145</v>
+        <v>138</v>
       </c>
     </row>
     <row r="449" spans="1:18">
@@ -23712,7 +23712,7 @@
         <v>1</v>
       </c>
       <c r="Q449">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="R449">
         <v>15</v>
@@ -23759,7 +23759,7 @@
         <v>0</v>
       </c>
       <c r="Q450">
-        <v>146</v>
+        <v>139</v>
       </c>
     </row>
     <row r="451" spans="1:18">
@@ -23809,7 +23809,7 @@
         <v>1</v>
       </c>
       <c r="Q451">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="R451">
         <v>12</v>
@@ -23862,7 +23862,7 @@
         <v>0</v>
       </c>
       <c r="Q452">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="453" spans="1:18">
@@ -23909,7 +23909,7 @@
         <v>0</v>
       </c>
       <c r="Q453">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="454" spans="1:18">
@@ -23956,7 +23956,7 @@
         <v>0</v>
       </c>
       <c r="Q454">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="455" spans="1:18">
@@ -24003,7 +24003,7 @@
         <v>0</v>
       </c>
       <c r="Q455">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="456" spans="1:18">
@@ -24053,7 +24053,7 @@
         <v>1</v>
       </c>
       <c r="Q456">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="R456">
         <v>0</v>
@@ -24103,7 +24103,7 @@
         <v>0</v>
       </c>
       <c r="Q457">
-        <v>148</v>
+        <v>141</v>
       </c>
     </row>
     <row r="458" spans="1:18">
@@ -24150,7 +24150,7 @@
         <v>0</v>
       </c>
       <c r="Q458">
-        <v>148</v>
+        <v>141</v>
       </c>
     </row>
     <row r="459" spans="1:18">
@@ -24197,7 +24197,7 @@
         <v>0</v>
       </c>
       <c r="Q459">
-        <v>148</v>
+        <v>141</v>
       </c>
     </row>
     <row r="460" spans="1:18">
@@ -24244,7 +24244,7 @@
         <v>0</v>
       </c>
       <c r="Q460">
-        <v>148</v>
+        <v>141</v>
       </c>
     </row>
     <row r="461" spans="1:18">
@@ -24294,7 +24294,7 @@
         <v>1</v>
       </c>
       <c r="Q461">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="R461">
         <v>8</v>
@@ -24341,7 +24341,7 @@
         <v>0</v>
       </c>
       <c r="Q462">
-        <v>149</v>
+        <v>142</v>
       </c>
     </row>
     <row r="463" spans="1:18">
@@ -24391,7 +24391,7 @@
         <v>1</v>
       </c>
       <c r="Q463">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="R463">
         <v>22</v>
@@ -24441,7 +24441,7 @@
         <v>0</v>
       </c>
       <c r="Q464">
-        <v>150</v>
+        <v>143</v>
       </c>
     </row>
     <row r="465" spans="1:18">
@@ -24488,7 +24488,7 @@
         <v>0</v>
       </c>
       <c r="Q465">
-        <v>150</v>
+        <v>143</v>
       </c>
     </row>
     <row r="466" spans="1:18">
@@ -24532,7 +24532,7 @@
         <v>0</v>
       </c>
       <c r="Q466">
-        <v>150</v>
+        <v>143</v>
       </c>
     </row>
     <row r="467" spans="1:18">
@@ -24579,7 +24579,7 @@
         <v>0</v>
       </c>
       <c r="Q467">
-        <v>150</v>
+        <v>143</v>
       </c>
     </row>
     <row r="468" spans="1:18">
@@ -24626,7 +24626,7 @@
         <v>0</v>
       </c>
       <c r="Q468">
-        <v>150</v>
+        <v>143</v>
       </c>
     </row>
     <row r="469" spans="1:18">
@@ -24673,7 +24673,7 @@
         <v>0</v>
       </c>
       <c r="Q469">
-        <v>150</v>
+        <v>143</v>
       </c>
     </row>
     <row r="470" spans="1:18">
@@ -24720,7 +24720,7 @@
         <v>0</v>
       </c>
       <c r="Q470">
-        <v>150</v>
+        <v>143</v>
       </c>
     </row>
     <row r="471" spans="1:18">
@@ -24770,7 +24770,7 @@
         <v>1</v>
       </c>
       <c r="Q471">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="R471">
         <v>3</v>
@@ -24814,10 +24814,10 @@
         <v>1</v>
       </c>
       <c r="P472" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q472">
-        <v>152</v>
+        <v>144</v>
       </c>
     </row>
     <row r="473" spans="1:18">
@@ -24858,7 +24858,7 @@
         <v>0</v>
       </c>
       <c r="Q473">
-        <v>152</v>
+        <v>144</v>
       </c>
     </row>
   </sheetData>
